--- a/resources/synonyms/conferences_synonyms.xlsx
+++ b/resources/synonyms/conferences_synonyms.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="1156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="1159">
   <si>
     <t>ACM International Conference on Intelligent Agent Technology (IAT)</t>
   </si>
@@ -1630,6 +1630,9 @@
     <t>SimpÃ³sio Brasileiro de Engenharia de Sistemas Computacionais</t>
   </si>
   <si>
+    <t>Brazilian Symposium on Software Engineering (SBES)</t>
+  </si>
+  <si>
     <t>Simpósio Brasileiro de Engenharia de Software (SBES)</t>
   </si>
   <si>
@@ -1648,6 +1651,9 @@
     <t>Simpósio Brasileiro de Engenharia de Software</t>
   </si>
   <si>
+    <t>the XXXIII Brazilian Symposium</t>
+  </si>
+  <si>
     <t>Simpósio Brasileiro de Geoinformática (GeoInfo)</t>
   </si>
   <si>
@@ -1771,6 +1777,9 @@
     <t>XI SimpÃ³sio Brasileiro de Jogos e Entretenimento Digital (SBGames 2012)</t>
   </si>
   <si>
+    <t>Brazilian Symposium on Computer Games and Digital Entertainment (SBGames)</t>
+  </si>
+  <si>
     <t>Simpósio Brasileiro de Métodos Formais (SBMF)</t>
   </si>
   <si>
@@ -3136,9 +3145,6 @@
     <t>2018 22nd International Conference Information Visualisation (IV)</t>
   </si>
   <si>
-    <t>Brazilian Symposium on Software Engineering (SBES)</t>
-  </si>
-  <si>
     <t>SBES - Brazilian Symposium on Software Engineering</t>
   </si>
   <si>
@@ -3266,6 +3272,9 @@
   </si>
   <si>
     <t>XXXIV Simpósio Brasileiro de Banco de Dados</t>
+  </si>
+  <si>
+    <t>35th Brazilian Symposium on Databases (SBBD'20)</t>
   </si>
   <si>
     <t>IEEE International Symposium on Circuits and Systems (ISCAS)</t>
@@ -3504,13 +3513,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -3518,14 +3520,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3548,7 +3543,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3559,6 +3576,30 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3578,39 +3619,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3624,16 +3641,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3656,13 +3665,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3674,13 +3683,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3698,19 +3749,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3722,7 +3773,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3734,109 +3833,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3853,8 +3862,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3862,8 +3901,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3892,21 +3931,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3918,21 +3942,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3958,147 +3967,150 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4423,4378 +4435,4393 @@
   <dimension ref="A1:AO326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="16384" width="10.2857142857143" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
+    <row r="6" s="1" customFormat="1" spans="1:18">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="8" s="1" customFormat="1" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="10" s="1" customFormat="1" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+    <row r="11" s="1" customFormat="1" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+    <row r="12" s="1" customFormat="1" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="13" s="1" customFormat="1" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="14" s="1" customFormat="1" spans="1:2">
+      <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="15" s="1" customFormat="1" spans="1:2">
+      <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
-      <c r="A16" t="s">
+    <row r="16" s="1" customFormat="1" spans="1:25">
+      <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="O16" t="s">
+      <c r="O16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="Q16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="T16" t="s">
+      <c r="T16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="U16" t="s">
+      <c r="U16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="V16" t="s">
+      <c r="V16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="W16" t="s">
+      <c r="W16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="X16" t="s">
+      <c r="X16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Y16" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+    <row r="17" s="1" customFormat="1" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
+    <row r="18" s="1" customFormat="1" spans="1:6">
+      <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
+    <row r="19" s="1" customFormat="1" spans="1:7">
+      <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+    <row r="20" s="1" customFormat="1" spans="1:2">
+      <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+    <row r="21" s="1" customFormat="1" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
+    <row r="22" s="1" customFormat="1" spans="1:4">
+      <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+    <row r="23" s="1" customFormat="1" spans="1:3">
+      <c r="A23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+    <row r="24" s="1" customFormat="1" spans="1:2">
+      <c r="A24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+    <row r="25" s="1" customFormat="1" spans="1:2">
+      <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
+    <row r="26" s="1" customFormat="1" spans="1:10">
+      <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
+    <row r="27" s="1" customFormat="1" spans="1:4">
+      <c r="A27" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
+    <row r="28" s="1" customFormat="1" spans="1:9">
+      <c r="A28" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+    <row r="29" s="1" customFormat="1" spans="1:3">
+      <c r="A29" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" t="s">
+    <row r="30" s="1" customFormat="1" spans="1:8">
+      <c r="A30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
+    <row r="31" s="1" customFormat="1" spans="1:5">
+      <c r="A31" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+    <row r="32" s="1" customFormat="1" spans="1:3">
+      <c r="A32" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
+    <row r="33" s="1" customFormat="1" spans="1:6">
+      <c r="A33" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="34" s="1" customFormat="1" spans="1:2">
+      <c r="A34" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+    <row r="35" s="1" customFormat="1" spans="1:2">
+      <c r="A35" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+    <row r="36" s="1" customFormat="1" spans="1:2">
+      <c r="A36" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+    <row r="37" s="1" customFormat="1" spans="1:2">
+      <c r="A37" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
+    <row r="38" s="1" customFormat="1" spans="1:4">
+      <c r="A38" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+    <row r="39" s="1" customFormat="1" spans="1:2">
+      <c r="A39" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
+    <row r="40" s="1" customFormat="1" spans="1:3">
+      <c r="A40" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+    <row r="41" s="1" customFormat="1" spans="1:2">
+      <c r="A41" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
+    <row r="42" s="1" customFormat="1" spans="1:2">
+      <c r="A42" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
+    <row r="43" s="1" customFormat="1" spans="1:2">
+      <c r="A43" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
+    <row r="44" s="1" customFormat="1" spans="1:7">
+      <c r="A44" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
+    <row r="45" s="1" customFormat="1" spans="1:6">
+      <c r="A45" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
+    <row r="46" s="1" customFormat="1" spans="1:2">
+      <c r="A46" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
+    <row r="47" s="1" customFormat="1" spans="1:7">
+      <c r="A47" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
+    <row r="48" s="1" customFormat="1" spans="1:6">
+      <c r="A48" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
+    <row r="49" s="1" customFormat="1" spans="1:4">
+      <c r="A49" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
+    <row r="50" s="1" customFormat="1" spans="1:3">
+      <c r="A50" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+    <row r="51" s="1" customFormat="1" spans="1:2">
+      <c r="A51" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
+    <row r="52" s="1" customFormat="1" spans="1:3">
+      <c r="A52" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
+    <row r="53" s="1" customFormat="1" spans="1:2">
+      <c r="A53" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" t="s">
+    <row r="54" s="1" customFormat="1" spans="1:10">
+      <c r="A54" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
+    <row r="55" s="1" customFormat="1" spans="1:3">
+      <c r="A55" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
+    <row r="56" s="1" customFormat="1" spans="1:5">
+      <c r="A56" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
+    <row r="57" s="1" customFormat="1" spans="1:4">
+      <c r="A57" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
+    <row r="58" s="1" customFormat="1" spans="1:2">
+      <c r="A58" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
+    <row r="59" s="1" customFormat="1" spans="1:2">
+      <c r="A59" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
+    <row r="60" s="1" customFormat="1" spans="1:2">
+      <c r="A60" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
+    <row r="61" s="1" customFormat="1" spans="1:3">
+      <c r="A61" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
+    <row r="62" s="1" customFormat="1" spans="1:2">
+      <c r="A62" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
+    <row r="63" s="1" customFormat="1" spans="1:3">
+      <c r="A63" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+    <row r="64" s="1" customFormat="1" spans="1:3">
+      <c r="A64" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
+    <row r="65" s="1" customFormat="1" spans="1:2">
+      <c r="A65" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
+    <row r="66" s="1" customFormat="1" spans="1:4">
+      <c r="A66" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" t="s">
+    <row r="67" s="1" customFormat="1" spans="1:7">
+      <c r="A67" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
+    <row r="68" s="1" customFormat="1" spans="1:2">
+      <c r="A68" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
+    <row r="69" s="1" customFormat="1" spans="1:2">
+      <c r="A69" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
+    <row r="70" s="1" customFormat="1" spans="1:2">
+      <c r="A70" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
+    <row r="71" s="1" customFormat="1" spans="1:3">
+      <c r="A71" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
+    <row r="72" s="1" customFormat="1" spans="1:2">
+      <c r="A72" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
+    <row r="73" s="1" customFormat="1" spans="1:2">
+      <c r="A73" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
+    <row r="74" s="1" customFormat="1" spans="1:2">
+      <c r="A74" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
+    <row r="75" s="1" customFormat="1" spans="1:6">
+      <c r="A75" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
+    <row r="76" s="1" customFormat="1" spans="1:4">
+      <c r="A76" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
+    <row r="77" s="1" customFormat="1" spans="1:4">
+      <c r="A77" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
+    <row r="78" s="1" customFormat="1" spans="1:2">
+      <c r="A78" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
+    <row r="79" s="1" customFormat="1" spans="1:3">
+      <c r="A79" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
+    <row r="80" s="1" customFormat="1" spans="1:2">
+      <c r="A80" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
+    <row r="81" s="1" customFormat="1" spans="1:4">
+      <c r="A81" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
+    <row r="82" s="1" customFormat="1" spans="1:2">
+      <c r="A82" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
+    <row r="83" s="1" customFormat="1" spans="1:3">
+      <c r="A83" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
+    <row r="84" s="1" customFormat="1" spans="1:3">
+      <c r="A84" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
+    <row r="85" s="1" customFormat="1" spans="1:2">
+      <c r="A85" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
+    <row r="86" s="1" customFormat="1" spans="1:3">
+      <c r="A86" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87" t="s">
+    <row r="87" s="1" customFormat="1" spans="1:6">
+      <c r="A87" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
-      <c r="A88" t="s">
+    <row r="88" s="1" customFormat="1" spans="1:11">
+      <c r="A88" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H88" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="J88" t="s">
+      <c r="J88" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="K88" t="s">
+      <c r="K88" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
+    <row r="89" s="1" customFormat="1" spans="1:2">
+      <c r="A89" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
+    <row r="90" s="1" customFormat="1" spans="1:2">
+      <c r="A90" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
+    <row r="91" s="1" customFormat="1" spans="1:2">
+      <c r="A91" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
+    <row r="92" s="1" customFormat="1" spans="1:4">
+      <c r="A92" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
+    <row r="93" s="1" customFormat="1" spans="1:3">
+      <c r="A93" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
+    <row r="94" s="1" customFormat="1" spans="1:2">
+      <c r="A94" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
-      <c r="A95" t="s">
+    <row r="95" s="1" customFormat="1" spans="1:7">
+      <c r="A95" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
+    <row r="96" s="1" customFormat="1" spans="1:2">
+      <c r="A96" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
+    <row r="97" s="1" customFormat="1" spans="1:2">
+      <c r="A97" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
+    <row r="98" s="1" customFormat="1" spans="1:2">
+      <c r="A98" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
+    <row r="99" s="1" customFormat="1" spans="1:2">
+      <c r="A99" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
-      <c r="A100" t="s">
+    <row r="100" s="1" customFormat="1" spans="1:8">
+      <c r="A100" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
+    <row r="101" s="1" customFormat="1" spans="1:2">
+      <c r="A101" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
+    <row r="102" s="1" customFormat="1" spans="1:2">
+      <c r="A102" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
+    <row r="103" s="1" customFormat="1" spans="1:2">
+      <c r="A103" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
-      <c r="A104" t="s">
+    <row r="104" s="1" customFormat="1" spans="1:10">
+      <c r="A104" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H104" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="J104" t="s">
+      <c r="J104" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
+    <row r="105" s="1" customFormat="1" spans="1:2">
+      <c r="A105" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
+    <row r="106" s="1" customFormat="1" spans="1:3">
+      <c r="A106" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
+    <row r="107" s="1" customFormat="1" spans="1:2">
+      <c r="A107" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
+    <row r="108" s="1" customFormat="1" spans="1:2">
+      <c r="A108" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
+    <row r="109" s="1" customFormat="1" spans="1:2">
+      <c r="A109" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
+    <row r="110" s="1" customFormat="1" spans="1:2">
+      <c r="A110" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
+    <row r="111" s="1" customFormat="1" spans="1:3">
+      <c r="A111" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
+    <row r="112" s="1" customFormat="1" spans="1:2">
+      <c r="A112" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
+    <row r="113" s="1" customFormat="1" spans="1:2">
+      <c r="A113" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
+    <row r="114" s="1" customFormat="1" spans="1:2">
+      <c r="A114" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
+    <row r="115" s="1" customFormat="1" spans="1:2">
+      <c r="A115" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
+    <row r="116" s="1" customFormat="1" spans="1:2">
+      <c r="A116" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
+    <row r="117" s="1" customFormat="1" spans="1:2">
+      <c r="A117" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
+    <row r="118" s="1" customFormat="1" spans="1:3">
+      <c r="A118" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
-      <c r="A119" t="s">
+    <row r="119" s="1" customFormat="1" spans="1:6">
+      <c r="A119" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
+    <row r="120" s="1" customFormat="1" spans="1:2">
+      <c r="A120" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
+    <row r="121" s="1" customFormat="1" spans="1:2">
+      <c r="A121" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
+    <row r="122" s="1" customFormat="1" spans="1:2">
+      <c r="A122" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
+    <row r="123" s="1" customFormat="1" spans="1:3">
+      <c r="A123" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
-      <c r="A124" t="s">
+    <row r="124" s="1" customFormat="1" spans="1:7">
+      <c r="A124" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
+    <row r="125" s="1" customFormat="1" spans="1:4">
+      <c r="A125" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
+    <row r="126" s="1" customFormat="1" spans="1:2">
+      <c r="A126" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
+    <row r="127" s="1" customFormat="1" spans="1:2">
+      <c r="A127" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
+    <row r="128" s="1" customFormat="1" spans="1:2">
+      <c r="A128" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
-      <c r="A129" t="s">
+    <row r="129" s="1" customFormat="1" spans="1:5">
+      <c r="A129" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
+    <row r="130" s="1" customFormat="1" spans="1:2">
+      <c r="A130" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" t="s">
+    <row r="131" s="1" customFormat="1" spans="1:4">
+      <c r="A131" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
+    <row r="132" s="1" customFormat="1" spans="1:3">
+      <c r="A132" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" t="s">
+    <row r="133" s="1" customFormat="1" spans="1:4">
+      <c r="A133" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
-      <c r="A134" t="s">
+    <row r="134" s="1" customFormat="1" spans="1:8">
+      <c r="A134" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H134" t="s">
+      <c r="H134" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
+    <row r="135" s="1" customFormat="1" spans="1:2">
+      <c r="A135" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
+    <row r="136" s="1" customFormat="1" spans="1:2">
+      <c r="A136" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
+    <row r="137" s="1" customFormat="1" spans="1:3">
+      <c r="A137" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
+    <row r="138" s="1" customFormat="1" spans="1:3">
+      <c r="A138" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
+    <row r="139" s="1" customFormat="1" spans="1:2">
+      <c r="A139" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="140" spans="1:22">
-      <c r="A140" t="s">
+    <row r="140" s="1" customFormat="1" spans="1:22">
+      <c r="A140" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H140" t="s">
+      <c r="H140" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="I140" t="s">
+      <c r="I140" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="J140" t="s">
+      <c r="J140" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="K140" t="s">
+      <c r="K140" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="L140" t="s">
+      <c r="L140" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="M140" t="s">
+      <c r="M140" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="N140" t="s">
+      <c r="N140" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="O140" t="s">
+      <c r="O140" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="P140" t="s">
+      <c r="P140" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="Q140" t="s">
+      <c r="Q140" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="R140" t="s">
+      <c r="R140" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="S140" t="s">
+      <c r="S140" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="T140" t="s">
+      <c r="T140" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="U140" t="s">
+      <c r="U140" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="V140" t="s">
+      <c r="V140" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" t="s">
+    <row r="141" s="1" customFormat="1" spans="1:4">
+      <c r="A141" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
+    <row r="142" s="1" customFormat="1" spans="1:2">
+      <c r="A142" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
-      <c r="A143" t="s">
+    <row r="143" s="1" customFormat="1" spans="1:3">
+      <c r="A143" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
+    <row r="144" s="1" customFormat="1" spans="1:2">
+      <c r="A144" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
+    <row r="145" s="1" customFormat="1" spans="1:2">
+      <c r="A145" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
+    <row r="146" s="1" customFormat="1" spans="1:2">
+      <c r="A146" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
-      <c r="A147" t="s">
+    <row r="147" s="1" customFormat="1" spans="1:3">
+      <c r="A147" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
+    <row r="148" s="1" customFormat="1" spans="1:2">
+      <c r="A148" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" t="s">
+    <row r="149" s="1" customFormat="1" spans="1:4">
+      <c r="A149" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
-      <c r="A150" t="s">
+    <row r="150" s="1" customFormat="1" spans="1:7">
+      <c r="A150" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G150" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
+    <row r="151" s="1" customFormat="1" spans="1:2">
+      <c r="A151" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
-      <c r="A152" t="s">
+    <row r="152" s="1" customFormat="1" spans="1:5">
+      <c r="A152" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="1" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
-      <c r="A153" t="s">
+    <row r="153" s="1" customFormat="1" spans="1:8">
+      <c r="A153" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" s="1" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" t="s">
+      <c r="G153" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B154" t="s">
+      <c r="H153" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C154" t="s">
+    </row>
+    <row r="154" s="1" customFormat="1" spans="1:3">
+      <c r="A154" s="1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155" t="s">
+      <c r="B154" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C154" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C155" t="s">
+    </row>
+    <row r="155" s="1" customFormat="1" spans="1:6">
+      <c r="A155" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D155" t="s">
+      <c r="B155" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="E155" t="s">
+      <c r="C155" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="F155" t="s">
+      <c r="D155" s="1" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="156" spans="1:33">
-      <c r="A156" t="s">
+      <c r="E155" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B156" t="s">
+      <c r="F155" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="C156" t="s">
+    </row>
+    <row r="156" s="1" customFormat="1" spans="1:34">
+      <c r="A156" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="D156" t="s">
+      <c r="B156" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="E156" t="s">
+      <c r="C156" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="F156" t="s">
+      <c r="D156" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="G156" t="s">
+      <c r="E156" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="H156" t="s">
+      <c r="F156" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="I156" t="s">
+      <c r="G156" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="J156" t="s">
+      <c r="H156" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="K156" t="s">
+      <c r="I156" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="L156" t="s">
+      <c r="J156" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="M156" t="s">
-        <v>554</v>
-      </c>
-      <c r="N156" t="s">
+      <c r="K156" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="O156" t="s">
+      <c r="L156" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="P156" t="s">
+      <c r="M156" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="N156" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="Q156" t="s">
+      <c r="O156" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="R156" t="s">
+      <c r="P156" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="S156" t="s">
+      <c r="Q156" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="T156" t="s">
+      <c r="R156" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="U156" t="s">
+      <c r="S156" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="V156" t="s">
+      <c r="T156" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="W156" t="s">
+      <c r="U156" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="X156" t="s">
+      <c r="V156" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="Y156" t="s">
+      <c r="W156" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="Z156" t="s">
+      <c r="X156" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="AA156" t="s">
+      <c r="Y156" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="AB156" t="s">
+      <c r="Z156" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="AC156" t="s">
+      <c r="AA156" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="AD156" t="s">
+      <c r="AB156" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="AE156" t="s">
+      <c r="AC156" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="AF156" t="s">
+      <c r="AD156" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="AG156" t="s">
+      <c r="AE156" s="1" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" t="s">
+      <c r="AF156" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B157" t="s">
+      <c r="AG156" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="C157" t="s">
+      <c r="AH156" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="D157" t="s">
+    </row>
+    <row r="157" s="1" customFormat="1" spans="1:4">
+      <c r="A157" s="1" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="158" spans="1:41">
-      <c r="A158" t="s">
+      <c r="B157" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C157" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D157" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="D158" t="s">
+    </row>
+    <row r="158" s="1" customFormat="1" spans="1:41">
+      <c r="A158" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="E158" t="s">
+      <c r="B158" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="F158" t="s">
+      <c r="C158" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="G158" t="s">
+      <c r="D158" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="H158" t="s">
+      <c r="E158" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="I158" t="s">
+      <c r="F158" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="J158" t="s">
+      <c r="G158" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="K158" t="s">
+      <c r="H158" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="L158" t="s">
+      <c r="I158" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="M158" t="s">
+      <c r="J158" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="N158" t="s">
+      <c r="K158" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="O158" t="s">
+      <c r="L158" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="P158" t="s">
+      <c r="M158" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="Q158" t="s">
+      <c r="N158" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="R158" t="s">
+      <c r="O158" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="S158" t="s">
+      <c r="P158" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="T158" t="s">
+      <c r="Q158" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="U158" t="s">
+      <c r="R158" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="V158" t="s">
+      <c r="S158" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="W158" t="s">
+      <c r="T158" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="X158" t="s">
+      <c r="U158" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="Y158" t="s">
+      <c r="V158" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="Z158" t="s">
+      <c r="W158" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="AA158" t="s">
+      <c r="X158" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="AB158" t="s">
+      <c r="Y158" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="AC158" t="s">
+      <c r="Z158" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="AD158" t="s">
+      <c r="AA158" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="AE158" t="s">
+      <c r="AB158" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="AF158" t="s">
+      <c r="AC158" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AG158" t="s">
+      <c r="AD158" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="AH158" t="s">
+      <c r="AE158" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="AI158" t="s">
+      <c r="AF158" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="AJ158" t="s">
+      <c r="AG158" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="AK158" t="s">
+      <c r="AH158" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="AL158" t="s">
+      <c r="AI158" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="AM158" t="s">
+      <c r="AJ158" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="AN158" t="s">
+      <c r="AK158" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="AO158" t="s">
+      <c r="AL158" s="1" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
+      <c r="AM158" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B159" t="s">
+      <c r="AN158" s="1" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="160" spans="1:16">
-      <c r="A160" t="s">
+      <c r="AO158" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B160" t="s">
+    </row>
+    <row r="159" s="1" customFormat="1" spans="1:2">
+      <c r="A159" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="C160" t="s">
+      <c r="B159" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="D160" t="s">
+    </row>
+    <row r="160" s="1" customFormat="1" spans="1:16">
+      <c r="A160" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="E160" t="s">
+      <c r="B160" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="F160" t="s">
+      <c r="C160" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="G160" t="s">
+      <c r="D160" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="H160" t="s">
+      <c r="E160" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="I160" t="s">
+      <c r="F160" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="J160" t="s">
+      <c r="G160" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="K160" t="s">
+      <c r="H160" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="L160" t="s">
+      <c r="I160" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="M160" t="s">
+      <c r="J160" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="N160" t="s">
+      <c r="K160" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="O160" t="s">
+      <c r="L160" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="P160" t="s">
+      <c r="M160" s="1" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161" t="s">
+      <c r="N160" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B161" t="s">
+      <c r="O160" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="C161" t="s">
+      <c r="P160" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="D161" t="s">
+    </row>
+    <row r="161" s="1" customFormat="1" spans="1:6">
+      <c r="A161" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="E161" t="s">
+      <c r="B161" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="F161" t="s">
+      <c r="C161" s="1" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
-      <c r="A162" t="s">
+      <c r="D161" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B162" t="s">
+      <c r="E161" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="C162" t="s">
+      <c r="F161" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="D162" t="s">
+    </row>
+    <row r="162" s="1" customFormat="1" spans="1:4">
+      <c r="A162" s="1" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="163" spans="1:8">
-      <c r="A163" t="s">
+      <c r="B162" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C162" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D162" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="D163" t="s">
+    </row>
+    <row r="163" s="1" customFormat="1" spans="1:8">
+      <c r="A163" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="E163" t="s">
+      <c r="B163" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="F163" t="s">
+      <c r="C163" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="G163" t="s">
+      <c r="D163" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="H163" t="s">
+      <c r="E163" s="1" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164" t="s">
+      <c r="F163" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B164" t="s">
+      <c r="G163" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="C164" t="s">
+      <c r="H163" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="D164" t="s">
+    </row>
+    <row r="164" s="1" customFormat="1" spans="1:7">
+      <c r="A164" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="E164" t="s">
+      <c r="B164" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="F164" t="s">
+      <c r="C164" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="G164" t="s">
+      <c r="D164" s="1" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
+      <c r="E164" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="B165" t="s">
+      <c r="F164" s="1" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" t="s">
+      <c r="G164" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B166" t="s">
+    </row>
+    <row r="165" s="1" customFormat="1" spans="1:2">
+      <c r="A165" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C166" t="s">
+      <c r="B165" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="D166" t="s">
+    </row>
+    <row r="166" s="1" customFormat="1" spans="1:4">
+      <c r="A166" s="1" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167" t="s">
+      <c r="B166" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C166" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D166" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="D167" t="s">
+    </row>
+    <row r="167" s="1" customFormat="1" spans="1:8">
+      <c r="A167" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="E167" t="s">
+      <c r="B167" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="F167" t="s">
+      <c r="C167" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="G167" t="s">
+      <c r="D167" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="H167" t="s">
+      <c r="E167" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" t="s">
+      <c r="F167" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="B168" t="s">
+      <c r="G167" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C168" t="s">
+      <c r="H167" s="1" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
-      <c r="A169" t="s">
+    <row r="168" s="1" customFormat="1" spans="1:3">
+      <c r="A168" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B168" s="1" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
-      <c r="A170" t="s">
+      <c r="C168" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B170" t="s">
+    </row>
+    <row r="169" s="1" customFormat="1" spans="1:2">
+      <c r="A169" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="C170" t="s">
+      <c r="B169" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="D170" t="s">
+    </row>
+    <row r="170" s="1" customFormat="1" spans="1:4">
+      <c r="A170" s="1" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="171" spans="1:4">
-      <c r="A171" t="s">
+      <c r="B170" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C170" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D170" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="D171" t="s">
+    </row>
+    <row r="171" s="1" customFormat="1" spans="1:4">
+      <c r="A171" s="1" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="172" spans="1:4">
-      <c r="A172" t="s">
+      <c r="B171" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C171" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D171" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="D172" t="s">
+    </row>
+    <row r="172" s="1" customFormat="1" spans="1:4">
+      <c r="A172" s="1" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" t="s">
+      <c r="B172" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C172" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D172" s="1" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="s">
+    <row r="173" s="1" customFormat="1" spans="1:3">
+      <c r="A173" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B173" s="1" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="s">
+      <c r="C173" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="B175" t="s">
+    </row>
+    <row r="174" s="1" customFormat="1" spans="1:2">
+      <c r="A174" s="1" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" t="s">
+      <c r="B174" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="B176" t="s">
+    </row>
+    <row r="175" s="1" customFormat="1" spans="1:2">
+      <c r="A175" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="C176" t="s">
+      <c r="B175" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="D176" t="s">
+    </row>
+    <row r="176" s="1" customFormat="1" spans="1:7">
+      <c r="A176" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="E176" t="s">
+      <c r="B176" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="F176" t="s">
+      <c r="C176" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="G176" t="s">
+      <c r="D176" s="1" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="177" spans="1:10">
-      <c r="A177" t="s">
+      <c r="E176" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B177" t="s">
+      <c r="F176" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="C177" t="s">
+      <c r="G176" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="D177" t="s">
+    </row>
+    <row r="177" s="1" customFormat="1" spans="1:10">
+      <c r="A177" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="E177" t="s">
+      <c r="B177" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="F177" t="s">
+      <c r="C177" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="G177" t="s">
+      <c r="D177" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="H177" t="s">
+      <c r="E177" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="I177" t="s">
+      <c r="F177" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="J177" t="s">
+      <c r="G177" s="1" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="178" spans="1:4">
-      <c r="A178" t="s">
+      <c r="H177" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B178" t="s">
+      <c r="I177" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="C178" t="s">
+      <c r="J177" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="D178" t="s">
+    </row>
+    <row r="178" s="1" customFormat="1" spans="1:4">
+      <c r="A178" s="1" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" t="s">
+      <c r="B178" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C178" s="1" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="s">
+      <c r="D178" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B180" t="s">
+    </row>
+    <row r="179" s="1" customFormat="1" spans="1:2">
+      <c r="A179" s="1" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="181" spans="1:4">
-      <c r="A181" t="s">
+      <c r="B179" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="B181" t="s">
+    </row>
+    <row r="180" s="1" customFormat="1" spans="1:2">
+      <c r="A180" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="C181" t="s">
+      <c r="B180" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="D181" t="s">
+    </row>
+    <row r="181" s="1" customFormat="1" spans="1:4">
+      <c r="A181" s="1" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" t="s">
+      <c r="B181" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C181" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D181" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="D182" t="s">
+    </row>
+    <row r="182" s="1" customFormat="1" spans="1:4">
+      <c r="A182" s="1" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="A183" t="s">
+      <c r="B182" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C182" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D182" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D183" t="s">
+    </row>
+    <row r="183" s="1" customFormat="1" spans="1:7">
+      <c r="A183" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="E183" t="s">
-        <v>744</v>
-      </c>
-      <c r="F183" t="s">
+      <c r="B183" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="G183" t="s">
+      <c r="C183" s="1" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" t="s">
+      <c r="D183" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B184" t="s">
+      <c r="E183" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="F183" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="C184" t="s">
+      <c r="G183" s="1" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
+    <row r="184" s="1" customFormat="1" spans="1:3">
+      <c r="A184" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B184" s="1" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="186" spans="1:4">
-      <c r="A186" t="s">
+      <c r="C184" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B186" t="s">
+    </row>
+    <row r="185" s="1" customFormat="1" spans="1:2">
+      <c r="A185" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="C186" t="s">
+      <c r="B185" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="D186" t="s">
+    </row>
+    <row r="186" s="1" customFormat="1" spans="1:4">
+      <c r="A186" s="1" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" t="s">
+      <c r="B186" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C186" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D186" s="1" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
-      <c r="A188" t="s">
+    <row r="187" s="1" customFormat="1" spans="1:3">
+      <c r="A187" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B187" s="1" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="s">
+      <c r="C187" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="188" s="1" customFormat="1" spans="1:2">
+      <c r="A188" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="189" s="1" customFormat="1" spans="1:2">
+      <c r="A189" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="B189" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" t="s">
-        <v>765</v>
-      </c>
-      <c r="B190" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" t="s">
-        <v>692</v>
-      </c>
-      <c r="B191" t="s">
+      <c r="B189" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="C191" t="s">
+    </row>
+    <row r="190" s="1" customFormat="1" spans="1:2">
+      <c r="A190" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="D191" t="s">
+      <c r="B190" s="1" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
-      <c r="A192" t="s">
+    <row r="191" s="1" customFormat="1" spans="1:4">
+      <c r="A191" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C191" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D191" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="D192" t="s">
+    </row>
+    <row r="192" s="1" customFormat="1" spans="1:6">
+      <c r="A192" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="E192" t="s">
+      <c r="B192" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="F192" t="s">
+      <c r="C192" s="1" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" t="s">
+      <c r="D192" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="B193" t="s">
+      <c r="E192" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="C193" t="s">
+      <c r="F192" s="1" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
-      <c r="A194" t="s">
-        <v>632</v>
-      </c>
-      <c r="B194" t="s">
+    <row r="193" s="1" customFormat="1" spans="1:3">
+      <c r="A193" s="1" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" t="s">
+      <c r="B193" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C193" s="1" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
-      <c r="A196" t="s">
+    <row r="194" s="1" customFormat="1" spans="1:2">
+      <c r="A194" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="195" s="1" customFormat="1" spans="1:2">
+      <c r="A195" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="196" s="1" customFormat="1" spans="1:4">
+      <c r="A196" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B196" t="s">
-        <v>782</v>
-      </c>
-      <c r="C196" t="s">
-        <v>783</v>
-      </c>
-      <c r="D196" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" t="s">
+      <c r="B196" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C196" s="1" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" t="s">
+      <c r="D196" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="B198" t="s">
+    </row>
+    <row r="197" s="1" customFormat="1" spans="1:2">
+      <c r="A197" s="1" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199" t="s">
-        <v>553</v>
-      </c>
-      <c r="B199" t="s">
+      <c r="B197" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="C199" t="s">
+    </row>
+    <row r="198" s="1" customFormat="1" spans="1:2">
+      <c r="A198" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="D199" t="s">
+      <c r="B198" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="E199" t="s">
+    </row>
+    <row r="199" s="1" customFormat="1" spans="1:6">
+      <c r="A199" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="F199" t="s">
+      <c r="C199" s="1" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" t="s">
+      <c r="D199" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="200" s="1" customFormat="1" spans="1:3">
+      <c r="A200" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B200" t="s">
-        <v>794</v>
-      </c>
-      <c r="C200" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
-      <c r="A201" t="s">
-        <v>589</v>
-      </c>
-      <c r="B201" t="s">
-        <v>796</v>
-      </c>
-      <c r="C201" t="s">
+      <c r="B200" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="D201" t="s">
+      <c r="C200" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="E201" t="s">
+    </row>
+    <row r="201" s="1" customFormat="1" spans="1:8">
+      <c r="A201" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="F201" t="s">
+      <c r="C201" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="G201" t="s">
+      <c r="D201" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="H201" t="s">
+      <c r="E201" s="1" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="202" spans="1:4">
-      <c r="A202" t="s">
+      <c r="F201" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="B202" t="s">
+      <c r="G201" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C202" t="s">
-        <v>736</v>
-      </c>
-      <c r="D202" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
+      <c r="H201" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="B203" t="s">
+    </row>
+    <row r="202" s="1" customFormat="1" spans="1:4">
+      <c r="A202" s="1" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204" t="s">
-        <v>677</v>
-      </c>
-      <c r="B204" t="s">
+      <c r="B202" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C202" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="203" s="1" customFormat="1" spans="1:2">
+      <c r="A203" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="D204" t="s">
+      <c r="B203" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="E204" t="s">
+    </row>
+    <row r="204" s="1" customFormat="1" spans="1:6">
+      <c r="A204" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="F204" t="s">
+      <c r="C204" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="205" s="1" customFormat="1" spans="1:3">
+      <c r="A205" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="206" s="1" customFormat="1" spans="1:3">
+      <c r="A206" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="207" s="1" customFormat="1" spans="1:2">
+      <c r="A207" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="208" s="1" customFormat="1" spans="1:2">
+      <c r="A208" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="209" s="1" customFormat="1" spans="1:3">
+      <c r="A209" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="210" s="1" customFormat="1" spans="1:2">
+      <c r="A210" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="211" s="1" customFormat="1" spans="1:4">
+      <c r="A211" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="212" s="1" customFormat="1" spans="1:3">
+      <c r="A212" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="213" s="1" customFormat="1" spans="1:3">
+      <c r="A213" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="214" s="1" customFormat="1" spans="1:4">
+      <c r="A214" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="215" s="1" customFormat="1" spans="1:2">
+      <c r="A215" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="216" s="1" customFormat="1" spans="1:2">
+      <c r="A216" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="217" s="1" customFormat="1" spans="1:2">
+      <c r="A217" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="218" s="1" customFormat="1" spans="1:3">
+      <c r="A218" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="219" s="1" customFormat="1" spans="1:3">
+      <c r="A219" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="220" s="1" customFormat="1" spans="1:4">
+      <c r="A220" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="221" s="1" customFormat="1" spans="1:2">
+      <c r="A221" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="222" s="1" customFormat="1" spans="1:4">
+      <c r="A222" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="223" s="1" customFormat="1" spans="1:2">
+      <c r="A223" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="224" s="1" customFormat="1" spans="1:2">
+      <c r="A224" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="225" s="1" customFormat="1" spans="1:5">
+      <c r="A225" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="226" s="1" customFormat="1" spans="1:3">
+      <c r="A226" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="227" s="1" customFormat="1" spans="1:4">
+      <c r="A227" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="228" s="1" customFormat="1" spans="1:8">
+      <c r="A228" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="229" s="1" customFormat="1" spans="1:3">
+      <c r="A229" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="230" s="1" customFormat="1" spans="1:2">
+      <c r="A230" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="231" s="1" customFormat="1" spans="1:2">
+      <c r="A231" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="232" s="1" customFormat="1" spans="1:2">
+      <c r="A232" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="233" s="1" customFormat="1" spans="1:3">
+      <c r="A233" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="234" s="1" customFormat="1" spans="1:3">
+      <c r="A234" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="235" s="1" customFormat="1" spans="1:2">
+      <c r="A235" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="236" s="1" customFormat="1" spans="1:3">
+      <c r="A236" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="237" s="1" customFormat="1" spans="1:3">
+      <c r="A237" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="238" s="1" customFormat="1" spans="1:3">
+      <c r="A238" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="239" s="1" customFormat="1" spans="1:2">
+      <c r="A239" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="240" s="1" customFormat="1" spans="1:5">
+      <c r="A240" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="241" s="1" customFormat="1" spans="1:2">
+      <c r="A241" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="242" s="1" customFormat="1" spans="1:3">
+      <c r="A242" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="243" s="1" customFormat="1" spans="1:4">
+      <c r="A243" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="244" s="1" customFormat="1" spans="1:2">
+      <c r="A244" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="245" s="1" customFormat="1" spans="1:4">
+      <c r="A245" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="246" s="1" customFormat="1" spans="1:2">
+      <c r="A246" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="247" s="1" customFormat="1" spans="1:2">
+      <c r="A247" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="248" s="1" customFormat="1" spans="1:3">
+      <c r="A248" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="249" s="1" customFormat="1" spans="1:2">
+      <c r="A249" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="250" s="1" customFormat="1" spans="1:2">
+      <c r="A250" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="251" s="1" customFormat="1" spans="1:2">
+      <c r="A251" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="252" s="1" customFormat="1" spans="1:2">
+      <c r="A252" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="253" s="1" customFormat="1" spans="1:7">
+      <c r="A253" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="254" s="1" customFormat="1" spans="1:3">
+      <c r="A254" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" s="1" customFormat="1" spans="1:3">
+      <c r="A255" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="256" s="1" customFormat="1" spans="1:4">
+      <c r="A256" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="257" s="1" customFormat="1" spans="1:2">
+      <c r="A257" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="258" s="1" customFormat="1" spans="1:6">
+      <c r="A258" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="259" s="1" customFormat="1" spans="1:4">
+      <c r="A259" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="260" s="1" customFormat="1" spans="1:5">
+      <c r="A260" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="261" s="1" customFormat="1" spans="1:2">
+      <c r="A261" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="262" s="1" customFormat="1" spans="1:3">
+      <c r="A262" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="263" s="1" customFormat="1" spans="1:3">
+      <c r="A263" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="264" s="1" customFormat="1" spans="1:2">
+      <c r="A264" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="265" s="1" customFormat="1" spans="1:2">
+      <c r="A265" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="266" s="1" customFormat="1" spans="1:5">
+      <c r="A266" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="267" s="1" customFormat="1" spans="1:3">
+      <c r="A267" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="268" s="1" customFormat="1" spans="1:2">
+      <c r="A268" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="269" s="1" customFormat="1" spans="1:3">
+      <c r="A269" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="270" s="1" customFormat="1" spans="1:3">
+      <c r="A270" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="271" s="1" customFormat="1" spans="1:3">
+      <c r="A271" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="272" s="1" customFormat="1" spans="1:2">
+      <c r="A272" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="273" s="1" customFormat="1" spans="1:2">
+      <c r="A273" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="274" s="1" customFormat="1" spans="1:2">
+      <c r="A274" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="275" s="1" customFormat="1" spans="1:5">
+      <c r="A275" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="276" s="1" customFormat="1" spans="1:2">
+      <c r="A276" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="277" s="1" customFormat="1" spans="1:2">
+      <c r="A277" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="278" s="1" customFormat="1" spans="1:6">
+      <c r="A278" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="279" s="1" customFormat="1" spans="1:2">
+      <c r="A279" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="280" s="1" customFormat="1" spans="1:2">
+      <c r="A280" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="281" s="1" customFormat="1" spans="1:5">
+      <c r="A281" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="282" s="1" customFormat="1" spans="1:10">
+      <c r="A282" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="283" s="1" customFormat="1" spans="1:4">
+      <c r="A283" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="284" s="1" customFormat="1" spans="1:2">
+      <c r="A284" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="285" s="1" customFormat="1" spans="1:5">
+      <c r="A285" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="286" s="1" customFormat="1" spans="1:4">
+      <c r="A286" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="287" s="1" customFormat="1" spans="1:4">
+      <c r="A287" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="288" s="1" customFormat="1" spans="1:2">
+      <c r="A288" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="289" s="1" customFormat="1" spans="1:2">
+      <c r="A289" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="290" s="1" customFormat="1" spans="1:2">
+      <c r="A290" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="291" s="1" customFormat="1" spans="1:2">
+      <c r="A291" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="292" s="1" customFormat="1" spans="1:2">
+      <c r="A292" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="293" s="1" customFormat="1" spans="1:3">
+      <c r="A293" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="294" s="1" customFormat="1" spans="1:3">
+      <c r="A294" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="295" s="1" customFormat="1" spans="1:2">
+      <c r="A295" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="296" s="1" customFormat="1" spans="1:3">
+      <c r="A296" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="297" s="1" customFormat="1" spans="1:3">
+      <c r="A297" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="298" s="1" customFormat="1" spans="1:2">
+      <c r="A298" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="299" s="1" customFormat="1" spans="1:7">
+      <c r="A299" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="300" s="1" customFormat="1" spans="1:2">
+      <c r="A300" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="301" s="1" customFormat="1" spans="1:2">
+      <c r="A301" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="302" s="1" customFormat="1" spans="1:2">
+      <c r="A302" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="303" s="1" customFormat="1" spans="1:9">
+      <c r="A303" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H303" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I303" s="1" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="304" s="1" customFormat="1" spans="1:2">
+      <c r="A304" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="305" s="1" customFormat="1" spans="1:2">
+      <c r="A305" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="306" s="1" customFormat="1" spans="1:3">
+      <c r="A306" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="307" s="1" customFormat="1" spans="1:3">
+      <c r="A307" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="308" s="1" customFormat="1" spans="1:3">
+      <c r="A308" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="309" s="1" customFormat="1" spans="1:6">
+      <c r="A309" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="310" s="1" customFormat="1" spans="1:4">
+      <c r="A310" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="311" s="1" customFormat="1" spans="1:3">
+      <c r="A311" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="312" s="1" customFormat="1" spans="1:3">
+      <c r="A312" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="313" s="1" customFormat="1" spans="1:3">
+      <c r="A313" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="314" s="1" customFormat="1" spans="1:3">
+      <c r="A314" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="315" s="1" customFormat="1" spans="1:2">
+      <c r="A315" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="316" s="1" customFormat="1" spans="1:3">
+      <c r="A316" s="1" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" t="s">
-        <v>811</v>
-      </c>
-      <c r="B205" t="s">
-        <v>812</v>
-      </c>
-      <c r="C205" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" t="s">
-        <v>814</v>
-      </c>
-      <c r="B206" t="s">
-        <v>815</v>
-      </c>
-      <c r="C206" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" t="s">
-        <v>349</v>
-      </c>
-      <c r="B207" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" t="s">
-        <v>452</v>
-      </c>
-      <c r="B208" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" t="s">
-        <v>819</v>
-      </c>
-      <c r="B209" t="s">
-        <v>820</v>
-      </c>
-      <c r="C209" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" t="s">
-        <v>822</v>
-      </c>
-      <c r="B210" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4">
-      <c r="A211" t="s">
-        <v>654</v>
-      </c>
-      <c r="B211" t="s">
-        <v>824</v>
-      </c>
-      <c r="C211" t="s">
-        <v>825</v>
-      </c>
-      <c r="D211" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" t="s">
-        <v>209</v>
-      </c>
-      <c r="B212" t="s">
-        <v>827</v>
-      </c>
-      <c r="C212" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" t="s">
-        <v>829</v>
-      </c>
-      <c r="B213" t="s">
-        <v>830</v>
-      </c>
-      <c r="C213" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" t="s">
-        <v>240</v>
-      </c>
-      <c r="B214" t="s">
-        <v>832</v>
-      </c>
-      <c r="C214" t="s">
-        <v>833</v>
-      </c>
-      <c r="D214" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" t="s">
-        <v>835</v>
-      </c>
-      <c r="B215" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" t="s">
-        <v>327</v>
-      </c>
-      <c r="B216" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" t="s">
-        <v>838</v>
-      </c>
-      <c r="B217" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" t="s">
-        <v>840</v>
-      </c>
-      <c r="B218" t="s">
-        <v>841</v>
-      </c>
-      <c r="C218" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" t="s">
-        <v>843</v>
-      </c>
-      <c r="B219" t="s">
-        <v>844</v>
-      </c>
-      <c r="C219" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4">
-      <c r="A220" t="s">
-        <v>750</v>
-      </c>
-      <c r="B220" t="s">
-        <v>846</v>
-      </c>
-      <c r="C220" t="s">
-        <v>847</v>
-      </c>
-      <c r="D220" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" t="s">
-        <v>849</v>
-      </c>
-      <c r="B221" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" t="s">
-        <v>502</v>
-      </c>
-      <c r="B222" t="s">
-        <v>851</v>
-      </c>
-      <c r="C222" t="s">
-        <v>852</v>
-      </c>
-      <c r="D222" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" t="s">
-        <v>854</v>
-      </c>
-      <c r="B223" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" t="s">
-        <v>856</v>
-      </c>
-      <c r="B224" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225" t="s">
-        <v>858</v>
-      </c>
-      <c r="B225" t="s">
-        <v>859</v>
-      </c>
-      <c r="C225" t="s">
-        <v>860</v>
-      </c>
-      <c r="D225" t="s">
-        <v>861</v>
-      </c>
-      <c r="E225" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" t="s">
-        <v>863</v>
-      </c>
-      <c r="B226" t="s">
-        <v>864</v>
-      </c>
-      <c r="C226" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="A227" t="s">
-        <v>340</v>
-      </c>
-      <c r="B227" t="s">
-        <v>866</v>
-      </c>
-      <c r="C227" t="s">
-        <v>867</v>
-      </c>
-      <c r="D227" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
-      <c r="A228" t="s">
-        <v>62</v>
-      </c>
-      <c r="B228" t="s">
-        <v>56</v>
-      </c>
-      <c r="C228" t="s">
-        <v>869</v>
-      </c>
-      <c r="D228" t="s">
-        <v>870</v>
-      </c>
-      <c r="E228" t="s">
-        <v>871</v>
-      </c>
-      <c r="F228" t="s">
-        <v>872</v>
-      </c>
-      <c r="G228" t="s">
-        <v>873</v>
-      </c>
-      <c r="H228" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" t="s">
-        <v>409</v>
-      </c>
-      <c r="B229" t="s">
-        <v>875</v>
-      </c>
-      <c r="C229" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" t="s">
-        <v>877</v>
-      </c>
-      <c r="B230" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" t="s">
-        <v>879</v>
-      </c>
-      <c r="B231" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" t="s">
-        <v>881</v>
-      </c>
-      <c r="B232" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" t="s">
-        <v>41</v>
-      </c>
-      <c r="B233" t="s">
-        <v>883</v>
-      </c>
-      <c r="C233" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234" t="s">
-        <v>12</v>
-      </c>
-      <c r="B234" t="s">
-        <v>885</v>
-      </c>
-      <c r="C234" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" t="s">
-        <v>887</v>
-      </c>
-      <c r="B235" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" t="s">
-        <v>289</v>
-      </c>
-      <c r="B236" t="s">
-        <v>889</v>
-      </c>
-      <c r="C236" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" t="s">
-        <v>891</v>
-      </c>
-      <c r="B237" t="s">
-        <v>892</v>
-      </c>
-      <c r="C237" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" t="s">
-        <v>894</v>
-      </c>
-      <c r="B238" t="s">
-        <v>895</v>
-      </c>
-      <c r="C238" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" t="s">
-        <v>897</v>
-      </c>
-      <c r="B239" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="A240" t="s">
-        <v>899</v>
-      </c>
-      <c r="B240" t="s">
-        <v>900</v>
-      </c>
-      <c r="C240" t="s">
-        <v>901</v>
-      </c>
-      <c r="D240" t="s">
-        <v>902</v>
-      </c>
-      <c r="E240" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" t="s">
-        <v>904</v>
-      </c>
-      <c r="B241" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242" t="s">
-        <v>648</v>
-      </c>
-      <c r="B242" t="s">
-        <v>906</v>
-      </c>
-      <c r="C242" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243" t="s">
-        <v>908</v>
-      </c>
-      <c r="B243" t="s">
-        <v>909</v>
-      </c>
-      <c r="C243" t="s">
-        <v>910</v>
-      </c>
-      <c r="D243" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" t="s">
-        <v>912</v>
-      </c>
-      <c r="B244" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="A245" t="s">
-        <v>298</v>
-      </c>
-      <c r="B245" t="s">
-        <v>914</v>
-      </c>
-      <c r="C245" t="s">
-        <v>915</v>
-      </c>
-      <c r="D245" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" t="s">
-        <v>917</v>
-      </c>
-      <c r="B246" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" t="s">
-        <v>179</v>
-      </c>
-      <c r="B247" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
-      <c r="A248" t="s">
-        <v>311</v>
-      </c>
-      <c r="B248" t="s">
-        <v>920</v>
-      </c>
-      <c r="C248" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" t="s">
-        <v>922</v>
-      </c>
-      <c r="B249" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" t="s">
-        <v>924</v>
-      </c>
-      <c r="B250" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" t="s">
-        <v>926</v>
-      </c>
-      <c r="B251" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" t="s">
-        <v>928</v>
-      </c>
-      <c r="B252" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7">
-      <c r="A253" t="s">
-        <v>930</v>
-      </c>
-      <c r="B253" t="s">
-        <v>931</v>
-      </c>
-      <c r="C253" t="s">
-        <v>932</v>
-      </c>
-      <c r="D253" t="s">
-        <v>933</v>
-      </c>
-      <c r="E253" t="s">
-        <v>934</v>
-      </c>
-      <c r="F253" t="s">
-        <v>935</v>
-      </c>
-      <c r="G253" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
-      <c r="A254" t="s">
-        <v>937</v>
-      </c>
-      <c r="B254" t="s">
-        <v>938</v>
-      </c>
-      <c r="C254" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
-      <c r="A255" t="s">
-        <v>939</v>
-      </c>
-      <c r="B255" t="s">
-        <v>940</v>
-      </c>
-      <c r="C255" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
-      <c r="A256" t="s">
-        <v>942</v>
-      </c>
-      <c r="B256" t="s">
-        <v>943</v>
-      </c>
-      <c r="C256" t="s">
-        <v>944</v>
-      </c>
-      <c r="D256" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" t="s">
-        <v>946</v>
-      </c>
-      <c r="B257" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
-      <c r="A258" t="s">
-        <v>948</v>
-      </c>
-      <c r="B258" t="s">
-        <v>949</v>
-      </c>
-      <c r="C258" t="s">
-        <v>377</v>
-      </c>
-      <c r="D258" t="s">
-        <v>950</v>
-      </c>
-      <c r="E258" t="s">
-        <v>951</v>
-      </c>
-      <c r="F258" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4">
-      <c r="A259" t="s">
-        <v>953</v>
-      </c>
-      <c r="B259" t="s">
-        <v>954</v>
-      </c>
-      <c r="C259" t="s">
-        <v>955</v>
-      </c>
-      <c r="D259" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260" t="s">
-        <v>235</v>
-      </c>
-      <c r="B260" t="s">
-        <v>957</v>
-      </c>
-      <c r="C260" t="s">
-        <v>958</v>
-      </c>
-      <c r="D260" t="s">
-        <v>959</v>
-      </c>
-      <c r="E260" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" t="s">
-        <v>961</v>
-      </c>
-      <c r="B261" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262" t="s">
-        <v>74</v>
-      </c>
-      <c r="B262" t="s">
-        <v>963</v>
-      </c>
-      <c r="C262" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" t="s">
-        <v>965</v>
-      </c>
-      <c r="B263" t="s">
-        <v>966</v>
-      </c>
-      <c r="C263" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" t="s">
-        <v>968</v>
-      </c>
-      <c r="B264" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" t="s">
-        <v>519</v>
-      </c>
-      <c r="B265" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="A266" t="s">
-        <v>971</v>
-      </c>
-      <c r="B266" t="s">
-        <v>972</v>
-      </c>
-      <c r="C266" t="s">
-        <v>973</v>
-      </c>
-      <c r="D266" t="s">
-        <v>974</v>
-      </c>
-      <c r="E266" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
-      <c r="A267" t="s">
-        <v>718</v>
-      </c>
-      <c r="B267" t="s">
-        <v>976</v>
-      </c>
-      <c r="C267" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" t="s">
-        <v>978</v>
-      </c>
-      <c r="B268" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" t="s">
-        <v>980</v>
-      </c>
-      <c r="B269" t="s">
-        <v>981</v>
-      </c>
-      <c r="C269" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="A270" t="s">
-        <v>221</v>
-      </c>
-      <c r="B270" t="s">
-        <v>983</v>
-      </c>
-      <c r="C270" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
-      <c r="A271" t="s">
-        <v>985</v>
-      </c>
-      <c r="B271" t="s">
-        <v>986</v>
-      </c>
-      <c r="C271" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" t="s">
-        <v>988</v>
-      </c>
-      <c r="B272" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" t="s">
-        <v>755</v>
-      </c>
-      <c r="B273" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" t="s">
-        <v>521</v>
-      </c>
-      <c r="B274" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
-      <c r="A275" t="s">
-        <v>992</v>
-      </c>
-      <c r="B275" t="s">
-        <v>993</v>
-      </c>
-      <c r="C275" t="s">
-        <v>994</v>
-      </c>
-      <c r="D275" t="s">
-        <v>995</v>
-      </c>
-      <c r="E275" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" t="s">
-        <v>997</v>
-      </c>
-      <c r="B276" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" t="s">
-        <v>48</v>
-      </c>
-      <c r="B277" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6">
-      <c r="A278" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B278" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C278" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D278" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E278" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F278" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B279" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B280" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
-      <c r="A281" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B281" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C281" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D281" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E281" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10">
-      <c r="A282" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B282" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C282" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D282" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E282" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F282" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G282" t="s">
-        <v>1021</v>
-      </c>
-      <c r="H282" t="s">
-        <v>1022</v>
-      </c>
-      <c r="I282" t="s">
-        <v>1023</v>
-      </c>
-      <c r="J282" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4">
-      <c r="A283" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B283" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C283" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D283" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B284" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
-      <c r="A285" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B285" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C285" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D285" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E285" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
-      <c r="A286" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B286" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C286" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D286" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
-      <c r="A287" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B287" t="s">
-        <v>538</v>
-      </c>
-      <c r="C287" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D287" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" t="s">
-        <v>516</v>
-      </c>
-      <c r="B288" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B289" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
-      <c r="A290" t="s">
-        <v>102</v>
-      </c>
-      <c r="B290" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
-      <c r="A291" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B291" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
-      <c r="A292" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B292" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
-      <c r="A293" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B293" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C293" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
-      <c r="A294" t="s">
-        <v>441</v>
-      </c>
-      <c r="B294" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C294" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
-      <c r="A295" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B295" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
-      <c r="A296" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B296" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C296" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
-      <c r="A297" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B297" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C297" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
-      <c r="A298" t="s">
-        <v>112</v>
-      </c>
-      <c r="B298" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7">
-      <c r="A299" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B299" t="s">
-        <v>254</v>
-      </c>
-      <c r="C299" t="s">
-        <v>251</v>
-      </c>
-      <c r="D299" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E299" t="s">
-        <v>1067</v>
-      </c>
-      <c r="F299" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G299" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2">
-      <c r="A300" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B300" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
-      <c r="A301" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B302" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
-      <c r="A303" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B303" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C303" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D303" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E303" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F303" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G303" t="s">
-        <v>1082</v>
-      </c>
-      <c r="H303" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B304" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B305" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3">
-      <c r="A306" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B306" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C306" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3">
-      <c r="A307" t="s">
-        <v>269</v>
-      </c>
-      <c r="B307" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C307" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3">
-      <c r="A308" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B308" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C308" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6">
-      <c r="A309" t="s">
-        <v>36</v>
-      </c>
-      <c r="B309" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C309" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D309" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E309" t="s">
-        <v>1099</v>
-      </c>
-      <c r="F309" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4">
-      <c r="A310" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B310" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C310" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D310" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3">
-      <c r="A311" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B311" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C311" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3">
-      <c r="A312" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B312" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C312" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3">
-      <c r="A313" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B313" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C313" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3">
-      <c r="A314" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B314" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C314" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2">
-      <c r="A315" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B315" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3">
-      <c r="A316" t="s">
-        <v>673</v>
-      </c>
-      <c r="B316" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C316" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3">
-      <c r="A317" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B317" t="s">
+      <c r="B316" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="C317" t="s">
+      <c r="C316" s="1" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
-      <c r="A318" t="s">
+    <row r="317" s="1" customFormat="1" spans="1:3">
+      <c r="A317" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B317" s="1" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="319" spans="1:4">
-      <c r="A319" t="s">
+      <c r="C317" s="1" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="318" s="1" customFormat="1" spans="1:2">
+      <c r="A318" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="319" s="1" customFormat="1" spans="1:4">
+      <c r="A319" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B319" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C319" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D319" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4">
-      <c r="A320" t="s">
+      <c r="B319" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="B320" t="s">
+      <c r="C319" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="C320" t="s">
+      <c r="D319" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="D320" t="s">
+    </row>
+    <row r="320" s="1" customFormat="1" spans="1:4">
+      <c r="A320" s="1" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="321" spans="1:2">
-      <c r="A321" t="s">
+      <c r="B320" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="B321" t="s">
+      <c r="C320" s="1" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="322" spans="1:8">
-      <c r="A322" t="s">
+      <c r="D320" s="1" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="321" s="1" customFormat="1" spans="1:2">
+      <c r="A321" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="322" s="1" customFormat="1" spans="1:8">
+      <c r="A322" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B322" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C322" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D322" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E322" t="s">
+      <c r="B322" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="F322" t="s">
+      <c r="C322" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="G322" t="s">
+      <c r="D322" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="H322" t="s">
+      <c r="E322" s="1" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="323" spans="1:2">
-      <c r="A323" t="s">
+      <c r="F322" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G322" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H322" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="323" s="1" customFormat="1" spans="1:2">
+      <c r="A323" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B323" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="324" spans="1:13">
-      <c r="A324" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B324" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C324" t="s">
+      <c r="B323" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="D324" t="s">
+    </row>
+    <row r="324" s="1" customFormat="1" spans="1:13">
+      <c r="A324" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="E324" t="s">
+      <c r="B324" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="F324" t="s">
+      <c r="C324" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="G324" t="s">
+      <c r="D324" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G324" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H324" t="s">
-        <v>1149</v>
-      </c>
-      <c r="I324" t="s">
-        <v>1150</v>
-      </c>
-      <c r="J324" t="s">
-        <v>1151</v>
-      </c>
-      <c r="K324" t="s">
+      <c r="H324" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="L324" t="s">
+      <c r="I324" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="M324" t="s">
+      <c r="J324" s="1" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="325" spans="1:2">
-      <c r="A325" t="s">
+      <c r="K324" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="L324" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="M324" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="325" s="1" customFormat="1" spans="1:2">
+      <c r="A325" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
-      <c r="A326" t="s">
+    <row r="326" s="1" customFormat="1" spans="1:2">
+      <c r="A326" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B326" t="s">
-        <v>1155</v>
+      <c r="B326" s="1" t="s">
+        <v>1158</v>
       </c>
     </row>
   </sheetData>

--- a/resources/synonyms/conferences_synonyms.xlsx
+++ b/resources/synonyms/conferences_synonyms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leomurta/workspace/perfil/resources/synonyms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113130E4-DD26-0045-AB63-7D0CCB62A90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21514E91-3806-1B43-9650-68CDFB729BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="2173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="2174">
   <si>
     <t>ACM INTERNATIONAL CONFERENCE ON INTELLIGENT AGENT TECHNOLOGY (IAT)</t>
   </si>
@@ -6539,6 +6539,9 @@
   </si>
   <si>
     <t>SBGAMES - BRAZILIAN SYMPOSIUM ON COMPUTER GAMES AND DIGITAL ENTERTAINMENT</t>
+  </si>
+  <si>
+    <t>20TH IFIP TC13 INTERNATIONAL CONFERENCE ON HUMAN-COMPUTER INTERACTION</t>
   </si>
 </sst>
 </file>
@@ -6904,8 +6907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DF444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="K183" sqref="K183"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="J120" sqref="J120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9444,6 +9447,9 @@
       <c r="I120" t="s">
         <v>648</v>
       </c>
+      <c r="J120" t="s">
+        <v>2173</v>
+      </c>
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">

--- a/resources/synonyms/conferences_synonyms.xlsx
+++ b/resources/synonyms/conferences_synonyms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leomurta/workspace/perfil/resources/synonyms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21514E91-3806-1B43-9650-68CDFB729BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038125CD-4742-DB4B-A38B-CBB0B69DA00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2198" uniqueCount="2174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="2190">
   <si>
     <t>ACM INTERNATIONAL CONFERENCE ON INTELLIGENT AGENT TECHNOLOGY (IAT)</t>
   </si>
@@ -6542,13 +6542,61 @@
   </si>
   <si>
     <t>20TH IFIP TC13 INTERNATIONAL CONFERENCE ON HUMAN-COMPUTER INTERACTION</t>
+  </si>
+  <si>
+    <t>BRACIS - BRAZILIAN CONFERENCE ON INTELLIGENT SYSTEMS</t>
+  </si>
+  <si>
+    <t>WORKSHOP DE EDUCAÇÃO EM COMPUTAÇÃO (WEI)</t>
+  </si>
+  <si>
+    <t>2025 28TH INTERNATIONAL CONFERENCE ON INFORMATION FUSION (FUSION)</t>
+  </si>
+  <si>
+    <t>BRAZILIAN SYMPOSIUM ON MULTIMEDIA AND THE WEB (WEBMEDIA 2025)</t>
+  </si>
+  <si>
+    <t>LVII SIMPÓSIO BRASILEIRO DE PESQUISA OPERACIONAL</t>
+  </si>
+  <si>
+    <t>IEEE HEALTHCOM</t>
+  </si>
+  <si>
+    <t>XXXVIII SIMPÓSIO BRASILEIRO DE ENGENHARIA DE SOFTWARE</t>
+  </si>
+  <si>
+    <t>XXXIX SIMPÓSIO BRASILEIRO DE ENGENHARI</t>
+  </si>
+  <si>
+    <t>SBQS &amp;APOS;23: XXII BRAZILIAN SYMPOSIUM ON SOFTWARE QUALITY</t>
+  </si>
+  <si>
+    <t>2024 IEEE INTERNATIONAL CONFERENCE ON EHEALTH NETWORKING, APPLICATION &amp;AMP;AMP; SERVICES (HEALTHCOM)</t>
+  </si>
+  <si>
+    <t>27TH INTERNATIONAL CONFERENCE ON ENTERPRISE INFORMATION SYSTEMS</t>
+  </si>
+  <si>
+    <t>IHC '22: XXI BRAZILIAN SYMPOSIUM ON HUMAN FACTORS IN COMPUTING SYSTEMS</t>
+  </si>
+  <si>
+    <t>IFIP INTERNATIONAL CONFERENCE ON ENTERTAINMENT COMPUTING - ICEC 2024</t>
+  </si>
+  <si>
+    <t>XXIII BRAZILIAN SYMPOSIUM ON HUMAN FACTORS IN COMPUTING SYSTEMS (IHC 2024)</t>
+  </si>
+  <si>
+    <t>XXIII BRAZILIAN SYMPOSIUM ON HUMAN FACTORS IN COMPUTING SYSTEMS</t>
+  </si>
+  <si>
+    <t>XXIII BRAZILIAN SYMPOSIUM ON HUMAN FACTORS IN COMPUTING SYSTEMS,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6561,6 +6609,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6598,11 +6653,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6905,10 +6961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DF444"/>
+  <dimension ref="A1:DG444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="J120" sqref="J120"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="M189" sqref="M189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7709,6 +7765,9 @@
       <c r="N22" t="s">
         <v>138</v>
       </c>
+      <c r="O22" s="2" t="s">
+        <v>2177</v>
+      </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -8762,7 +8821,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>448</v>
       </c>
@@ -8770,7 +8829,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>450</v>
       </c>
@@ -8778,7 +8837,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>452</v>
       </c>
@@ -8795,7 +8854,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>457</v>
       </c>
@@ -8803,7 +8862,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>459</v>
       </c>
@@ -8820,7 +8879,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>464</v>
       </c>
@@ -8828,7 +8887,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>466</v>
       </c>
@@ -8916,8 +8975,11 @@
       <c r="AC87" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="2" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>483</v>
       </c>
@@ -8925,7 +8987,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>496</v>
       </c>
@@ -8936,7 +8998,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>499</v>
       </c>
@@ -8944,7 +9006,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>501</v>
       </c>
@@ -8955,7 +9017,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>504</v>
       </c>
@@ -8963,7 +9025,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>506</v>
       </c>
@@ -8971,7 +9033,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>508</v>
       </c>
@@ -9000,7 +9062,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>517</v>
       </c>
@@ -9011,7 +9073,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>520</v>
       </c>
@@ -9300,7 +9362,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>605</v>
       </c>
@@ -9308,7 +9370,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>607</v>
       </c>
@@ -9316,7 +9378,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>609</v>
       </c>
@@ -9371,8 +9433,11 @@
       <c r="R115" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S115" s="2" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>627</v>
       </c>
@@ -9380,7 +9445,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>629</v>
       </c>
@@ -9388,7 +9453,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>631</v>
       </c>
@@ -9396,7 +9461,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>633</v>
       </c>
@@ -9419,7 +9484,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>640</v>
       </c>
@@ -9451,7 +9516,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>649</v>
       </c>
@@ -9459,7 +9524,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>651</v>
       </c>
@@ -9475,8 +9540,11 @@
       <c r="E122" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F122" s="2" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>656</v>
       </c>
@@ -9484,7 +9552,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>658</v>
       </c>
@@ -9492,7 +9560,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>660</v>
       </c>
@@ -9500,7 +9568,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>662</v>
       </c>
@@ -9508,7 +9576,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>664</v>
       </c>
@@ -9519,7 +9587,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>667</v>
       </c>
@@ -10527,6 +10595,12 @@
       <c r="D174" t="s">
         <v>969</v>
       </c>
+      <c r="E174" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>2181</v>
+      </c>
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
@@ -10571,7 +10645,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="177" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>983</v>
       </c>
@@ -10579,7 +10653,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="178" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>985</v>
       </c>
@@ -10608,7 +10682,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="179" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>994</v>
       </c>
@@ -10757,7 +10831,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="180" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>1042</v>
       </c>
@@ -10771,7 +10845,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="181" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>1046</v>
       </c>
@@ -11102,8 +11176,11 @@
       <c r="DF181" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="182" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="DG181" s="2" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="182" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>1156</v>
       </c>
@@ -11113,8 +11190,11 @@
       <c r="C182" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="183" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="D182" s="2" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="183" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>1159</v>
       </c>
@@ -11212,7 +11292,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="184" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>1191</v>
       </c>
@@ -11244,7 +11324,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="185" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>1201</v>
       </c>
@@ -11273,7 +11353,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="186" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>1210</v>
       </c>
@@ -11299,7 +11379,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="187" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>1218</v>
       </c>
@@ -11319,7 +11399,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="188" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>1224</v>
       </c>
@@ -11336,7 +11416,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="189" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>1228</v>
       </c>
@@ -11373,8 +11453,20 @@
       <c r="L189" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="190" spans="1:110" x14ac:dyDescent="0.2">
+      <c r="M189" s="2" t="s">
+        <v>2185</v>
+      </c>
+      <c r="N189" s="2" t="s">
+        <v>2187</v>
+      </c>
+      <c r="O189" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="P189" s="2" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>1240</v>
       </c>
@@ -11394,7 +11486,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="191" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>1246</v>
       </c>
@@ -11486,7 +11578,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="192" spans="1:110" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:111" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>1275</v>
       </c>
@@ -11862,6 +11954,9 @@
       <c r="B213" t="s">
         <v>1384</v>
       </c>
+      <c r="C213" t="s">
+        <v>2175</v>
+      </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
@@ -13021,6 +13116,9 @@
       <c r="E293" t="s">
         <v>1712</v>
       </c>
+      <c r="F293" t="s">
+        <v>2174</v>
+      </c>
     </row>
     <row r="294" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
@@ -13760,6 +13858,12 @@
       </c>
       <c r="B354" t="s">
         <v>1913</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>2183</v>
       </c>
     </row>
     <row r="355" spans="1:18" x14ac:dyDescent="0.2">
